--- a/data/trans_camb/LAWTONB_2R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-9.143911968244925</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.54661789130678</v>
+        <v>3.546617891306786</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.543106981368052</v>
@@ -655,7 +655,7 @@
         <v>4.092472757595978</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>15.96610488328173</v>
+        <v>15.96610488328172</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.317510250686554</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-16.65318811868597</v>
+        <v>-15.81532806848671</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.3806437033285</v>
+        <v>-19.57496204523248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.098551895145032</v>
+        <v>-6.008304410497812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.961010619294237</v>
+        <v>-3.129134437118208</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.915891139818453</v>
+        <v>-7.266175110648923</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.97175518973047</v>
+        <v>6.654965336168317</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.479532294920844</v>
+        <v>-7.04600686255873</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.998846299250328</v>
+        <v>-9.576588044529496</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.404218951357706</v>
+        <v>3.37958642534866</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.955827960544995</v>
+        <v>6.697450571947533</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6568071212703112</v>
+        <v>1.112454533246346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.10429752343324</v>
+        <v>14.04504651828184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.73836679640507</v>
+        <v>17.25392860822964</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.68053271829876</v>
+        <v>13.73751373028021</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>25.63445194134682</v>
+        <v>24.63066473614671</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.947286114278956</v>
+        <v>9.101407971562033</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.219942593763684</v>
+        <v>5.52032957722328</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.96574168626423</v>
+        <v>16.17264935486784</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3103929864093105</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1203910670573416</v>
+        <v>0.1203910670573417</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2138894371098561</v>
@@ -760,7 +760,7 @@
         <v>0.1337799759353172</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5219204264956157</v>
+        <v>0.5219204264956153</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.04377252694960021</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4814167793734887</v>
+        <v>-0.450314886377542</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5426440672737647</v>
+        <v>-0.5461879208687389</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1726261100972143</v>
+        <v>-0.169704177695295</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1386145892895835</v>
+        <v>-0.09497453328597628</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1819244966739266</v>
+        <v>-0.1976358071053438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1837930452690195</v>
+        <v>0.173892080056497</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1901316618099315</v>
+        <v>-0.2052575531623621</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2680695180890901</v>
+        <v>-0.2841379706313674</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09754696232521373</v>
+        <v>0.09135448705432254</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2495393741689336</v>
+        <v>0.2934976672769833</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03842843309390262</v>
+        <v>0.05788553915092164</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5912969416412961</v>
+        <v>0.6447243085708566</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6845781304983367</v>
+        <v>0.6995574237322076</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5807595427521248</v>
+        <v>0.5438149024359338</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.081813927608816</v>
+        <v>1.018507015119185</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3385626334832057</v>
+        <v>0.3472473181381803</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.248959017984107</v>
+        <v>0.2090869575449218</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6719528945184376</v>
+        <v>0.6160285290179793</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.9434646364346599</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.117795890316456</v>
+        <v>4.117795890316462</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.548762620097123</v>
@@ -878,7 +878,7 @@
         <v>-3.955640606803917</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.7755118586460719</v>
+        <v>-0.775511858646083</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.58205733819643</v>
+        <v>-14.65358216753568</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.8366109009656</v>
+        <v>-17.46206518051177</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-16.8053493042178</v>
+        <v>-16.87792305003833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.177622315988596</v>
+        <v>-0.8730941555423909</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.40440210519238</v>
+        <v>-10.88344476411224</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.159985718376563</v>
+        <v>-4.381946118857029</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.288486926937433</v>
+        <v>-3.605267054666599</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.81644327034157</v>
+        <v>-11.3516440870026</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.118876245365807</v>
+        <v>-7.577429889670524</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.053426170646708</v>
+        <v>7.363270614113492</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.177961868916915</v>
+        <v>1.894949893137338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.923039890109601</v>
+        <v>1.599361775221797</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.15121501609105</v>
+        <v>19.48177024177999</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.542382121774438</v>
+        <v>8.997091020102875</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.17157775644533</v>
+        <v>12.34307422908321</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.10065345112238</v>
+        <v>11.5779471691025</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.933613775062598</v>
+        <v>3.866199287718894</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.442733861148361</v>
+        <v>5.040582398965177</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.0251448125178399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1097457198184128</v>
+        <v>0.109745719818413</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1000303910741491</v>
@@ -983,7 +983,7 @@
         <v>-0.1114992235903768</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.02185966287620662</v>
+        <v>-0.02185966287620694</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3586398371077831</v>
+        <v>-0.3898062252200235</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4619890598620563</v>
+        <v>-0.4497995619585439</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4329807934497275</v>
+        <v>-0.4351372910537408</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04911755514174843</v>
+        <v>-0.01957569714861095</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2859134331064637</v>
+        <v>-0.259235948947365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1154808525823079</v>
+        <v>-0.101540065347195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1039927123113988</v>
+        <v>-0.09644268229177713</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2964315059134712</v>
+        <v>-0.2921075938710557</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1824061348123161</v>
+        <v>-0.1918396867847183</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2655615108596737</v>
+        <v>0.2545224302653682</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05731598757883601</v>
+        <v>0.07184425297990861</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03512783351314112</v>
+        <v>0.06678895394233773</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6115243058219637</v>
+        <v>0.6380904637083075</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2984857396155551</v>
+        <v>0.2712964856086749</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3978126991202925</v>
+        <v>0.3966374175297657</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3524689838834533</v>
+        <v>0.3749305453377736</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.09414897818267288</v>
+        <v>0.1199583583665961</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1752129260945658</v>
+        <v>0.1645244855315518</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.058304405176092</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.288892083673381</v>
+        <v>-0.2888920836733838</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.321067082866186</v>
@@ -1092,7 +1092,7 @@
         <v>2.888125403249836</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.740476787411627</v>
+        <v>1.740476787411632</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.891993625351115</v>
+        <v>-5.735195486762891</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.475073371296393</v>
+        <v>-9.297852534660345</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.75326451989125</v>
+        <v>-10.11420451380138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.113617273338445</v>
+        <v>-9.225078619986643</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.556667761639462</v>
+        <v>-8.745230045371729</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.156632984383029</v>
+        <v>-4.404940545902654</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.379761527009152</v>
+        <v>-4.61948184788468</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.335250448749433</v>
+        <v>-5.944830180130001</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.542507421651226</v>
+        <v>-5.510767386100254</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.44659994193818</v>
+        <v>18.37459692288425</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.35871725946689</v>
+        <v>13.28617838086607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.655532362506134</v>
+        <v>9.255335566016983</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.322460513751</v>
+        <v>14.71900208003659</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.01884463491199</v>
+        <v>15.99178065431943</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.60415422728182</v>
+        <v>14.0975896982227</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.96883262032864</v>
+        <v>13.02450820372527</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.23326187320709</v>
+        <v>11.88658854079234</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.869391664222295</v>
+        <v>8.530429465290091</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.0995687556042656</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.01397491313867205</v>
+        <v>-0.01397491313867218</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.0970995391936338</v>
@@ -1197,7 +1197,7 @@
         <v>0.1019675156328709</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.06144888785969792</v>
+        <v>0.06144888785969811</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2390457662817689</v>
+        <v>-0.2426537161237396</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3639857097280228</v>
+        <v>-0.3516693551027704</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4049928559136067</v>
+        <v>-0.3863347449638321</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2086942948955985</v>
+        <v>-0.2248764162913138</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.210214539521321</v>
+        <v>-0.2291410081598136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1488688259081665</v>
+        <v>-0.1068929347500046</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1119156134739994</v>
+        <v>-0.1375804355071391</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1634442479900848</v>
+        <v>-0.1824311793551107</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1714758519856374</v>
+        <v>-0.1697795106945373</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.34446513664526</v>
+        <v>1.193483105540818</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8122898285333082</v>
+        <v>0.9144087841069846</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.625759108580204</v>
+        <v>0.6617944243928456</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5582063719560068</v>
+        <v>0.526978120701327</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5556797759497798</v>
+        <v>0.5718575003374246</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.545327799551929</v>
+        <v>0.5094292400469048</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5692881884922734</v>
+        <v>0.5648633862967338</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4835670037718258</v>
+        <v>0.4912370497223743</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3661191010380848</v>
+        <v>0.3412216730450922</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-0.3209036400085075</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.529712539411684</v>
+        <v>4.52971253941169</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.559921742252851</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.105743988646514</v>
+        <v>-5.451166602047269</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.60150957552803</v>
+        <v>-13.36301591420829</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.352999121216705</v>
+        <v>-8.059507136266731</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.26948032863067</v>
+        <v>-10.82002841256908</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.2572978070696</v>
+        <v>-9.343108546267327</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.754073284667074</v>
+        <v>-4.248951333022366</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.691978058978927</v>
+        <v>-5.048619735859351</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.715080022835147</v>
+        <v>-8.906246783343565</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.734054905576635</v>
+        <v>-3.790275029568387</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.98107821746881</v>
+        <v>14.81529897236104</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.548454910086592</v>
+        <v>3.998927334664537</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.218161018902816</v>
+        <v>7.815584182377779</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.330024670410699</v>
+        <v>8.040929756348232</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.603170783382735</v>
+        <v>8.788626625871796</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.0494412651529</v>
+        <v>11.69786676827798</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.604839963665839</v>
+        <v>8.147463665651369</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.828077286941442</v>
+        <v>4.583582365946529</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.365705766072509</v>
+        <v>8.22851569861932</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.009306261710827745</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.131362456235977</v>
+        <v>0.1313624562359771</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.05358248222639773</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2277817374917158</v>
+        <v>-0.213785773179848</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.50837371457632</v>
+        <v>-0.5150996859367486</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3151671831422859</v>
+        <v>-0.3149688644578507</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2641996837465047</v>
+        <v>-0.2687896744638837</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2671970650567935</v>
+        <v>-0.2400777951377689</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09254558301882462</v>
+        <v>-0.1066166701499489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.146288191920113</v>
+        <v>-0.1563277954375099</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.267189260113526</v>
+        <v>-0.2710836212407771</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.11274877546132</v>
+        <v>-0.1146353167341245</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.819281446886145</v>
+        <v>0.8687909928707481</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2427153485842425</v>
+        <v>0.2602161073506317</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4329448574630743</v>
+        <v>0.473939732002905</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2919144502482243</v>
+        <v>0.2797572853291042</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2898384880949152</v>
+        <v>0.306958265295851</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4092989405250766</v>
+        <v>0.4021021868755669</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3267472869597132</v>
+        <v>0.3335870762797775</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1492381953206919</v>
+        <v>0.1790369327220331</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.325743336779153</v>
+        <v>0.3332973206824088</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.285424261663115</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.890702822026013</v>
+        <v>6.890702822026007</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.569021275745348</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.888023284829138</v>
+        <v>-5.027985356159125</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.676586742120055</v>
+        <v>-10.62011133590047</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.25166426746427</v>
+        <v>-6.252492655866912</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.217007751906591</v>
+        <v>-1.056245574979677</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.092213274045007</v>
+        <v>-4.016342821685807</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.070150656407507</v>
+        <v>2.578274325281783</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.352649485531888</v>
+        <v>-1.703322167978702</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.106259467198152</v>
+        <v>-5.408151616032201</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.4068757151987517</v>
+        <v>-0.2053936399531184</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.255063095164624</v>
+        <v>5.950139821116662</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.21449035049998</v>
+        <v>-0.8616816328503983</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.095438420068934</v>
+        <v>2.97417087958081</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.459915675555683</v>
+        <v>9.611444746030154</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.195133608250584</v>
+        <v>6.80279042754355</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.04677448932191</v>
+        <v>11.29921498750597</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.578307935393419</v>
+        <v>6.014705630446861</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.069200631111949</v>
+        <v>1.858858179011572</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.085672043565418</v>
+        <v>6.346647059788729</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.03738135329930654</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2003881553763536</v>
+        <v>0.2003881553763535</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.08301532819676251</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1732204215856527</v>
+        <v>-0.1723589297763713</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3449499053071786</v>
+        <v>-0.3560137301558604</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2130468129234273</v>
+        <v>-0.2126988115614127</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03329347970397989</v>
+        <v>-0.031344102560147</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1098584635036107</v>
+        <v>-0.1116664033575932</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05454685550578538</v>
+        <v>0.06507959120462692</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.04044381845024991</v>
+        <v>-0.04955043480532188</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1579761656932077</v>
+        <v>-0.1663052864676453</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.01096589079023518</v>
+        <v>-0.006262693387313984</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2642670714947086</v>
+        <v>0.2613722335583891</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.009023532933303623</v>
+        <v>-0.03526579217083162</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1346564888408198</v>
+        <v>0.1305965261317991</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2987376594113831</v>
+        <v>0.3004051235898558</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1924784284946686</v>
+        <v>0.2161902755902146</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3544134034301409</v>
+        <v>0.3619134459296732</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.225797220116155</v>
+        <v>0.2082251341498101</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.07020636087657749</v>
+        <v>0.06457438043091997</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2134417053976927</v>
+        <v>0.2242434882485292</v>
       </c>
     </row>
     <row r="34">
